--- a/src/test/resources/datasheets/VerifyRequestor_changeRequire_ExistingLineLevel.xlsx
+++ b/src/test/resources/datasheets/VerifyRequestor_changeRequire_ExistingLineLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2910" windowWidth="14745" windowHeight="2205"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyReq_changeReq_ExiLineLevl" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Role</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>daysOut</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UnitofMeasure</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
   </si>
 </sst>
 </file>
@@ -63,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,32 +384,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
